--- a/biology/Zoologie/Grand-Laviers/Grand-Laviers.xlsx
+++ b/biology/Zoologie/Grand-Laviers/Grand-Laviers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Grand-Laviers est une commune française située dans le département de la Somme, en région Hauts-de-France.
-La commune fait partie des villages labellisés Pays d'art et d'histoire qui œuvrent à mettre en avant leur patrimoine[1],[2].
+La commune fait partie des villages labellisés Pays d'art et d'histoire qui œuvrent à mettre en avant leur patrimoine,.
 </t>
         </is>
       </c>
@@ -513,65 +525,56 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cartographies de la commune
-1 : carte OpenStreetMap ; 2 : carte topographique ; 3 : avec les communes environnantes
-Description
-Grand-Laviers est un village périurbain picard du Ponthieu, limitrophe d'Abbeville et construit à flanc de coteau au nord de la Somme, bordé :
+1 : carte OpenStreetMap ; 2 : carte topographique ; 3 : avec les communes environnantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand-Laviers est un village périurbain picard du Ponthieu, limitrophe d'Abbeville et construit à flanc de coteau au nord de la Somme, bordé :
 à l'ouest, par les collines du bois de Bonance (ancienne forêt d'Abbeville) ;
 au sud, par la limite nord de l'emprise cadastrale de la ligne de chemin de fer d'Abbeville au Tréport (située juste après le canal maritime d'Abbeville à Saint-Valery et son chemin de halage de rive gauche) ;
 à l'est, par les faubourgs d'Abbeville (notamment Menchecourt).
 Grand-Laviers est située sur l'ancienne RN 40 A (actuelle RD 40) reliant Abbeville à Rue, et surplombant naguère le fond de l'estuaire de la Somme. Le territoire communal est traversé au sud par la Ligne de Longueau à Boulogne-Ville et les autoroutes A16 et A 28 auxquelles il est connecté par la sortie no 1 Baie de la Somme.
 Le village a perdu de son importance avec le recul de la mer lié à l'ensablement de la baie.
 Depuis juillet 2020, la commune fait partie du parc naturel régional Baie de Somme - Picardie maritime.
-En 2019, Grand-Laviers est desservie par les lignes d'autocars du réseau Trans'80, Hauts-de-France, chaque jour de la semaine sauf le dimanche et les jours fériés[3]. La gare la plus proche est la gare d'Abbeville, desservie par des trains du réseau régional TER Hauts-de-France.
-Communes voisines
-Hydrographie
-Le sud du territoire communal est limité par le canal maritime d'Abbeville à Saint-Valery, qui double l'ancien lit et le lit actuel du  fleuve côtier la Somme (fleuve) et leurs importantes zones humides. Les anciens bassins de décantation de la sucrerie d'Abbeville, démolie en 2008, ont été réaménagés  en 2010 pour constituer la réserve ornithologique Baie de Somme - Grand-Laviers, fréquentée par près de 200 espèces d'oiseaux[4].
-Il est proche de la Baie de la Somme.
-Climat
-En 2010, le climat de la commune est de type climat océanique altéré, selon une étude du CNRS s'appuyant sur une série de données couvrant la période 1971-2000[5]. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est exposée à un climat océanique et est dans la région climatique  Côtes de la Manche orientale, caractérisée par un faible ensoleillement (1 550 h/an) ; forte humidité de l’air (plus de 20 h/jour avec humidité relative &gt; 80 % en hiver), vents forts fréquents[6]. 
-Pour la période 1971-2000, la température annuelle moyenne est de 10,4 °C, avec une amplitude thermique annuelle de 12,7 °C. Le cumul annuel moyen de précipitations est de 793 mm, avec 12,2 jours de précipitations en janvier et 8,3 jours en juillet[5]. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique la plus proche, située sur la commune d'Abbeville à 4 km à vol d'oiseau[7], est de 11,0 °C et le cumul annuel moyen de précipitations est de 806,2 mm[8],[9]. Pour l'avenir, les paramètres climatiques de la commune estimés pour 2050 selon différents scénarios d'émission de gaz à effet de serre sont consultables sur un site dédié publié par Météo-France en novembre 2022[10].
-Source : « Fiche 80001001 », sur donneespubliques.meteofrance.fr, edité le : 06/12/2023 dans l'état de la base
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Urbanisme</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typologie
-Grand-Laviers est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 1],[11],[12],[13].
-Elle appartient à l'unité urbaine d'Abbeville, une agglomération intra-départementale regroupant 5 communes[14] et 25 728 habitants en 2017, dont elle est une commune de la banlieue[15],[16].
-Par ailleurs la commune fait partie de l'aire d'attraction d'Abbeville dont elle est une commune de la couronne[Note 2]. Cette aire, qui regroupe 73 communes, est catégorisée dans les aires de 50 000 à moins de 200 000 habitants[17],[18].
-Occupation des sols
-L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (59,7 % en 2018), néanmoins en diminution par rapport à 1990 (75,9 %). La répartition détaillée en 2018 est la suivante : 
-terres arables (41 %), prairies (18,4 %), espaces verts artificialisés, non agricoles (11,9 %), forêts (9 %), eaux continentales[Note 3] (8,9 %), zones urbanisées (7,1 %), zones humides intérieures (1,8 %), zones industrielles ou commerciales et réseaux de communication (1,6 %), zones agricoles hétérogènes (0,3 %)[19]. L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
+En 2019, Grand-Laviers est desservie par les lignes d'autocars du réseau Trans'80, Hauts-de-France, chaque jour de la semaine sauf le dimanche et les jours fériés. La gare la plus proche est la gare d'Abbeville, desservie par des trains du réseau régional TER Hauts-de-France.
 </t>
         </is>
       </c>
@@ -597,13 +600,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Toponymie</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le village est mentionné en 881 en latin médiéval : Latverum[20] ou Laverum[21] dans les annales de l’abbaye Saint-Vaast.
-Les formes anciennes font penser à celle de Louviers (Lotvers 1025), dont le même élément final -viers se retrouve également dans Reviers (Calvados) et Verviers (Belgique). On identifie l'élément celtique var / ver dans les noms de la Vire, du Var et dans les noms de cours d'eau du type Varenne. Son sens serait donc hydronymique. Il n'est pas interdit d'y voir la signification de « bras de rivière », Louviers est située au bord d'un bras de l'Eure. Il est certain qu'au IXe siècle, cet endroit est encore au fond de l'estuaire de la Somme.
+          <t>Communes voisines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -629,26 +637,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Préhistoire
-Un site de taille de silex est fouillé en 1988 sur le tracé de la rocade ouest d'Abbeville : il met en évidence un habitat ancien et du matériel entre la basse Somme tourbeuse et les plateaux du Ponthieu[22].
-Moyen Âge
-Les Annales de Saint-Bertin rapportent qu'en 882, tandis que les Normands pillaient l'abbaye de Saint-Quentin, Carloman II, après diverses manœuvres stériles, établit son camp près de Laviers pour leur barrer le passage vers la mer.
-Au XIe siècle, une motte castrale est construite vers le haut de la côte de Laviers, « au-dessous du bois et de la ferme de Tofflet[23], sur un petit cap qui s'avance vers la baie ». En 1137, la charte accordée à Abbeville par le comte de Ponthieu mentionne  Laveriœ, et en 1177, une donation faite par Jean de Ponthieu à la léproserie des frères du Val, à Abbeville, mentionne le don d'une forêt, généralement identifiée comme le bois de Bonance. Le défrichement d'une forêt située dans l'actuel Val aux Lépreux, entre Laviers et Buigny-Saint-Maclou aurait démarré dès 1164.
-En 1271, le seigneur de Laviers est pair du comté de Ponthieu[24].
-Peu après les débuts de la guerre de Cent Ans, en 1349, le comte de Ponthieu confisque le fief de Laviers à la famille de Nivi et le vend aux Chartreux. Ce fief s'étend de Millencourt (près de Saint-Riquier) à Cambron, et commande la route d'Abbeville à Rue, où est extrait le sel. En 1416, le fief est attribué à Raoul le Sage, conseiller du roi d'Angleterre. En 1451, Charles VII confisque le fief et l'attribue à Jean de Belleval, maréchal de Ponthieu. En 1455, une escarmouche autour de Laviers empêche les navires de Philippe le Bon de débarquer sur la rive sud de l'estuaire de la Somme.
-En 1480, Louis XI achète la seigneurie de Laviers et en fait don à la chapelle du Saint-Esprit de Rue.
-En 1663, la léproserie du Val est dirigée par les Hospitaliers de saint Lazare[25].
-Le chapitre de Saint-Vulfran d'Abbeville rachète une partie de la seigneurie de Laviers en 1618 et, en 1696, ferme définitivement la maladrerie du Val des Lépreux.
-Temps modernes
-En 1777, à la suite de l'obstruction d'un bras de la Somme à Saint-Valery-sur-Somme, les autorités envisagent la réalisation d'un canal maritime entre Abbeville et l'estuaire, à Saint-Valery même. Les travaux commencent en 1786 mais doivent être interrompus dès 1793 devant les difficultés techniques (impossibilité de fonder les écluses dans le lit d'alluvions) et surtout la réaction des propriétaires de Bas-Champs, éleveurs de bétail de prés salés. Les travaux ne reprennent que sur ordre de Bonaparte en 1802, qui envisage de faire de Saint-Valery-sur-Somme un port de guerre. Les travaux se poursuivent en 1810, avec emploi de prisonniers de guerre espagnols aux travaux de terrassement, et le canal maritime est inauguré en 1827.
-En 1840, Laviers prend le nom de Grand-Laviers, et de 1845 à 1850, on construit la ligne de chemin de fer d'Abbeville à Étaples, tronçon constitutif de la ligne de Longueau à Boulogne-Ville. À Grand-Laviers, le lit de la vieille Somme est remblayé pour poser la voie. La Première Guerre mondiale épargne relativement le village, qui héberge des troupes d'auxiliaires coloniaux indiens, mais en mai 1940, le village partage le triste sort d'Abbeville. Il est libéré par les troupes canadiennes le 1er septembre 1944.
-En 1953, une école primaire est construite à Grand-Laviers. L'année suivante, l’œuvre des pupilles de l'école publique hérite de la famille de Jusancourt un château qui abrite depuis cette date un institut médico-pédagogique bien connu dans la région.
-Le 2 mai 1976, le hameau de Petit Laviers est rattaché à la commune de Grand-Laviers, auparavant il faisait partie de la commune de Cambron[26].
+          <t>Hydrographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sud du territoire communal est limité par le canal maritime d'Abbeville à Saint-Valery, qui double l'ancien lit et le lit actuel du  fleuve côtier la Somme (fleuve) et leurs importantes zones humides. Les anciens bassins de décantation de la sucrerie d'Abbeville, démolie en 2008, ont été réaménagés  en 2010 pour constituer la réserve ornithologique Baie de Somme - Grand-Laviers, fréquentée par près de 200 espèces d'oiseaux.
+Il est proche de la Baie de la Somme.
 </t>
         </is>
       </c>
@@ -674,136 +675,671 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, le climat de la commune est de type climat océanique altéré, selon une étude du CNRS s'appuyant sur une série de données couvrant la période 1971-2000. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est exposée à un climat océanique et est dans la région climatique  Côtes de la Manche orientale, caractérisée par un faible ensoleillement (1 550 h/an) ; forte humidité de l’air (plus de 20 h/jour avec humidité relative &gt; 80 % en hiver), vents forts fréquents. 
+Pour la période 1971-2000, la température annuelle moyenne est de 10,4 °C, avec une amplitude thermique annuelle de 12,7 °C. Le cumul annuel moyen de précipitations est de 793 mm, avec 12,2 jours de précipitations en janvier et 8,3 jours en juillet. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique la plus proche, située sur la commune d'Abbeville à 4 km à vol d'oiseau, est de 11,0 °C et le cumul annuel moyen de précipitations est de 806,2 mm,. Pour l'avenir, les paramètres climatiques de la commune estimés pour 2050 selon différents scénarios d'émission de gaz à effet de serre sont consultables sur un site dédié publié par Météo-France en novembre 2022.
+Source : « Fiche 80001001 », sur donneespubliques.meteofrance.fr, edité le : 06/12/2023 dans l'état de la base
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Urbanisme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand-Laviers est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 1].
+Elle appartient à l'unité urbaine d'Abbeville, une agglomération intra-départementale regroupant 5 communes et 25 728 habitants en 2017, dont elle est une commune de la banlieue,.
+Par ailleurs la commune fait partie de l'aire d'attraction d'Abbeville dont elle est une commune de la couronne[Note 2]. Cette aire, qui regroupe 73 communes, est catégorisée dans les aires de 50 000 à moins de 200 000 habitants,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Urbanisme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Occupation des sols</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (59,7 % en 2018), néanmoins en diminution par rapport à 1990 (75,9 %). La répartition détaillée en 2018 est la suivante : 
+terres arables (41 %), prairies (18,4 %), espaces verts artificialisés, non agricoles (11,9 %), forêts (9 %), eaux continentales[Note 3] (8,9 %), zones urbanisées (7,1 %), zones humides intérieures (1,8 %), zones industrielles ou commerciales et réseaux de communication (1,6 %), zones agricoles hétérogènes (0,3 %). L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le village est mentionné en 881 en latin médiéval : Latverum ou Laverum dans les annales de l’abbaye Saint-Vaast.
+Les formes anciennes font penser à celle de Louviers (Lotvers 1025), dont le même élément final -viers se retrouve également dans Reviers (Calvados) et Verviers (Belgique). On identifie l'élément celtique var / ver dans les noms de la Vire, du Var et dans les noms de cours d'eau du type Varenne. Son sens serait donc hydronymique. Il n'est pas interdit d'y voir la signification de « bras de rivière », Louviers est située au bord d'un bras de l'Eure. Il est certain qu'au IXe siècle, cet endroit est encore au fond de l'estuaire de la Somme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Préhistoire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un site de taille de silex est fouillé en 1988 sur le tracé de la rocade ouest d'Abbeville : il met en évidence un habitat ancien et du matériel entre la basse Somme tourbeuse et les plateaux du Ponthieu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Annales de Saint-Bertin rapportent qu'en 882, tandis que les Normands pillaient l'abbaye de Saint-Quentin, Carloman II, après diverses manœuvres stériles, établit son camp près de Laviers pour leur barrer le passage vers la mer.
+Au XIe siècle, une motte castrale est construite vers le haut de la côte de Laviers, « au-dessous du bois et de la ferme de Tofflet, sur un petit cap qui s'avance vers la baie ». En 1137, la charte accordée à Abbeville par le comte de Ponthieu mentionne  Laveriœ, et en 1177, une donation faite par Jean de Ponthieu à la léproserie des frères du Val, à Abbeville, mentionne le don d'une forêt, généralement identifiée comme le bois de Bonance. Le défrichement d'une forêt située dans l'actuel Val aux Lépreux, entre Laviers et Buigny-Saint-Maclou aurait démarré dès 1164.
+En 1271, le seigneur de Laviers est pair du comté de Ponthieu.
+Peu après les débuts de la guerre de Cent Ans, en 1349, le comte de Ponthieu confisque le fief de Laviers à la famille de Nivi et le vend aux Chartreux. Ce fief s'étend de Millencourt (près de Saint-Riquier) à Cambron, et commande la route d'Abbeville à Rue, où est extrait le sel. En 1416, le fief est attribué à Raoul le Sage, conseiller du roi d'Angleterre. En 1451, Charles VII confisque le fief et l'attribue à Jean de Belleval, maréchal de Ponthieu. En 1455, une escarmouche autour de Laviers empêche les navires de Philippe le Bon de débarquer sur la rive sud de l'estuaire de la Somme.
+En 1480, Louis XI achète la seigneurie de Laviers et en fait don à la chapelle du Saint-Esprit de Rue.
+En 1663, la léproserie du Val est dirigée par les Hospitaliers de saint Lazare.
+Le chapitre de Saint-Vulfran d'Abbeville rachète une partie de la seigneurie de Laviers en 1618 et, en 1696, ferme définitivement la maladrerie du Val des Lépreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Temps modernes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1777, à la suite de l'obstruction d'un bras de la Somme à Saint-Valery-sur-Somme, les autorités envisagent la réalisation d'un canal maritime entre Abbeville et l'estuaire, à Saint-Valery même. Les travaux commencent en 1786 mais doivent être interrompus dès 1793 devant les difficultés techniques (impossibilité de fonder les écluses dans le lit d'alluvions) et surtout la réaction des propriétaires de Bas-Champs, éleveurs de bétail de prés salés. Les travaux ne reprennent que sur ordre de Bonaparte en 1802, qui envisage de faire de Saint-Valery-sur-Somme un port de guerre. Les travaux se poursuivent en 1810, avec emploi de prisonniers de guerre espagnols aux travaux de terrassement, et le canal maritime est inauguré en 1827.
+En 1840, Laviers prend le nom de Grand-Laviers, et de 1845 à 1850, on construit la ligne de chemin de fer d'Abbeville à Étaples, tronçon constitutif de la ligne de Longueau à Boulogne-Ville. À Grand-Laviers, le lit de la vieille Somme est remblayé pour poser la voie. La Première Guerre mondiale épargne relativement le village, qui héberge des troupes d'auxiliaires coloniaux indiens, mais en mai 1940, le village partage le triste sort d'Abbeville. Il est libéré par les troupes canadiennes le 1er septembre 1944.
+En 1953, une école primaire est construite à Grand-Laviers. L'année suivante, l’œuvre des pupilles de l'école publique hérite de la famille de Jusancourt un château qui abrite depuis cette date un institut médico-pédagogique bien connu dans la région.
+Le 2 mai 1976, le hameau de Petit Laviers est rattaché à la commune de Grand-Laviers, auparavant il faisait partie de la commune de Cambron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Politique et administration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tendances politiques et résultats
-Grand-Laviers est un village traditionnellement de gauche qui a longtemps connu une forte implantation du parti Chasse Pêche Nature et Traditions, due au nombre important de chasseurs dans la commune. Toujours ancré à gauche, le village connaît une poussée du vote Front national, comme l'ensemble du département[réf. nécessaire].
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tendances politiques et résultats</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand-Laviers est un village traditionnellement de gauche qui a longtemps connu une forte implantation du parti Chasse Pêche Nature et Traditions, due au nombre important de chasseurs dans la commune. Toujours ancré à gauche, le village connaît une poussée du vote Front national, comme l'ensemble du département[réf. nécessaire].
 L'attachement à gauche de la commune est encore plus frappant en vue des résultats des élections législatives de 2007. Le député sortant UMP Joël Hart est très largement battu dans la commune par Gilbert Mathon, éléphant socialiste local.[réf. nécessaire]
 Les élections présidentielles de 2012 ont confirmé l'ancrage à gauche de la commune. En effet, François Hollande réalise un score de 31,4 % (81 voix) contre 25,97 % (67 voix) pour Nicolas Sarkozy, 20,54 % (53 voix) pour Marine Le Pen et 12,02 % (31 voix) pour Jean-Luc Mélenchon. Au second tour, M. Hollande a réuni 61,6 % (154 bulletins) des suffrages exprimés, un score nettement plus élevé que celui réalisé par Ségolène Royal en 2007.
 Il est intéressant de constater que le score de Mme Le Pen est supérieur de 4 points à celui réalisé par son père il y a cinq ans mais reste inférieur à la moyenne des communes environnantes (y compris Abbeville). Par ailleurs, les votes accordés à l'extrême droite au premier tour se sont peu reportés sur Nicolas Sarkozy qui améliore peu son score du premier tour.[réf. nécessaire]
 Les électeurs de Grand-Laviers ont également accordé une confiance massive à la candidate du Parti socialiste, Pascale Boistard, qui l'a emporté dans la commune avec 60,51 % des suffrages face à son adversaire de l'UMP Stéphane Decayeux. Ce score est cependant moindre que celui réalisé aux législatives de 2007 par Gilbert Mathon qui avait réuni près de 70 % des suffrages, ce qui s'explique probablement par le parachutage de Mme Boistard tandis que M. Mathon était très implanté dans la région.[réf. nécessaire]
-Liste des maires
-Politique de développement durable
-Un golf créé en 1989 lors de l'aménagement de l'autoroute A 16 et qui comptait 18 trous, un parcours d’entraînement et un practice, a été exploité jusqu'à janvier 2019 sur environ 72 ha[29]. Ses propriétaires veulent le remettre en culture, provoquant la crainte d'habitants que cet aménagement provoque des coulées de boue et des inondations en contrebas[30]. La communauté d'agglomération Baie de Somme souhaite, elle, acheter les terrains pour y réaliser un projet éco-touristique et structurant dans le cadre du Parc naturel régional[31].
-Distinctions et labels
-Les félicitations ont été obtenues en 2016 du Jury départemental des Villes et villages fleuris. En 2017, un prix d'honneur récompense les efforts fournis pour le fleurissement communal. Les élus espèrent une première fleur en 2018[32].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Politique et administration</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Liste des maires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Politique et administration</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Politique de développement durable</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un golf créé en 1989 lors de l'aménagement de l'autoroute A 16 et qui comptait 18 trous, un parcours d’entraînement et un practice, a été exploité jusqu'à janvier 2019 sur environ 72 ha. Ses propriétaires veulent le remettre en culture, provoquant la crainte d'habitants que cet aménagement provoque des coulées de boue et des inondations en contrebas. La communauté d'agglomération Baie de Somme souhaite, elle, acheter les terrains pour y réaliser un projet éco-touristique et structurant dans le cadre du Parc naturel régional.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Politique et administration</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Distinctions et labels</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les félicitations ont été obtenues en 2016 du Jury départemental des Villes et villages fleuris. En 2017, un prix d'honneur récompense les efforts fournis pour le fleurissement communal. Les élus espèrent une première fleur en 2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Population et société</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Démographie
-L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation[33]. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2006[34].
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Démographie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2006.
 En 2021, la commune comptait 463 habitants[Note 4], en augmentation de 16,62 % par rapport à 2015 (Somme : −0,98 %, France hors Mayotte : +1,84 %).
-De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999[26] puis Insee à partir de 2006[35].)
-Histogramme de l'évolution démographique
-Enseignement
-La commune accueille un institut médico-éducatif.
-Sport
-Le FC Grand-Laviers est le club de football de la commune. Il évolue actuellement en Départemental 4 du district de la Somme. Le FCGL évolue au stade municipal, situé rue de Touvent, dans les marais de Grand-Laviers.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999 puis Insee à partir de 2006.)
+Histogramme de l'évolution démographique</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Population et société</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune accueille un institut médico-éducatif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Population et société</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le FC Grand-Laviers est le club de football de la commune. Il évolue actuellement en Départemental 4 du district de la Somme. Le FCGL évolue au stade municipal, situé rue de Touvent, dans les marais de Grand-Laviers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Culture locale et patrimoine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Lieux et monuments
-Le bois de Bonance constitue un des principaux attraits de la commune.
-L'église Saint-Fuscien[36],[37] date du XVe siècle ; son clocher a été reconstruit en 1844.
-Les ruines d'une chapelle du XIIIe siècle[38], appartenant à l'ancienne maladrerie des Frères du Val, sont visibles.
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lieux et monuments</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Bonance constitue un des principaux attraits de la commune.
+L'église Saint-Fuscien, date du XVe siècle ; son clocher a été reconstruit en 1844.
+Les ruines d'une chapelle du XIIIe siècle, appartenant à l'ancienne maladrerie des Frères du Val, sont visibles.
 Le rond-point Saint-Nazare, lié à des événements curieux de la fin du XVIIIe siècle, est un lieu de pèlerinage local.
 			L'église Saint-Fuscien.
 			Vue du clocher-mur de l'église.
 			Monument aux morts.
 			L'institut médico-éducatif (IME) de Grand-Laviers.
-Faune
-Trois anciens bassins de décantation de la sucrerie d'Abbeville fermée en 2008, situés sur le territoire de la commune de Grand-Laviers, constituent une réserve ornithologique de 40 ha. Ils ont été achetés par la Fondation pour la protection des habitats de la faune sauvage et la Fédération des chasseurs de la Somme. Des aménagements ont permis d'en faire un lieu de nidification pour les oiseaux à l'abri d'intrusions de prédateurs. L'avifaune aquatique se compose de : Cygne tuberculé, Tadorne de Belon, Canard chipeau, Canard colvert, Canard souchet, Canard pilet, Sarcelle d'hiver, Grèbe à cou noir, Avocette élégante, Échasse blanche, Vanneau huppé... Depuis octobre 2010, le site est classé Réserve de chasse et de faune sauvage[39]. Une réserve ornithologique y a été créée en 2012.
-Trois parcours sillonnent la réserve et 13 observatoires permettent une observation optimale de la faune et de la flore  à travers les 4 km de circuit, tout en étant un site de nidification important au printemps pour de nombreuses espèces telles que l'Échasse blanche, l'Avocette élégante, la Mouette rieuse[40]...* La réserve ornithologique de Grand-Laviers, inaugurée en juin 2014, est ouverte au public depuis juillet 2014[40], tous les jours du 1er mars à la fin des vacances de la Toussaint, ainsi que pendant les vacances de Noël[41].
-Personnalités liées à la commune
-Pierre Firmin Delondres  (1774-1840), capitaine, héros des batailles de Wagram et de Dantzig[réf. nécessaire].
-Oswald Macqueron (1821-1899), aquarelliste  fit de nombreuses représentations de Grand-Laviers[42].
-Robert Tyrakowski (1944-2008), footballeur et entraîneur français, décédé à Grand-Laviers.
-Héraldique</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Culture locale et patrimoine</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lieux et monuments</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois anciens bassins de décantation de la sucrerie d'Abbeville fermée en 2008, situés sur le territoire de la commune de Grand-Laviers, constituent une réserve ornithologique de 40 ha. Ils ont été achetés par la Fondation pour la protection des habitats de la faune sauvage et la Fédération des chasseurs de la Somme. Des aménagements ont permis d'en faire un lieu de nidification pour les oiseaux à l'abri d'intrusions de prédateurs. L'avifaune aquatique se compose de : Cygne tuberculé, Tadorne de Belon, Canard chipeau, Canard colvert, Canard souchet, Canard pilet, Sarcelle d'hiver, Grèbe à cou noir, Avocette élégante, Échasse blanche, Vanneau huppé... Depuis octobre 2010, le site est classé Réserve de chasse et de faune sauvage. Une réserve ornithologique y a été créée en 2012.
+Trois parcours sillonnent la réserve et 13 observatoires permettent une observation optimale de la faune et de la flore  à travers les 4 km de circuit, tout en étant un site de nidification important au printemps pour de nombreuses espèces telles que l'Échasse blanche, l'Avocette élégante, la Mouette rieuse...* La réserve ornithologique de Grand-Laviers, inaugurée en juin 2014, est ouverte au public depuis juillet 2014, tous les jours du 1er mars à la fin des vacances de la Toussaint, ainsi que pendant les vacances de Noël.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Culture locale et patrimoine</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Personnalités liées à la commune</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Pierre Firmin Delondres  (1774-1840), capitaine, héros des batailles de Wagram et de Dantzig[réf. nécessaire].
+Oswald Macqueron (1821-1899), aquarelliste  fit de nombreuses représentations de Grand-Laviers.
+Robert Tyrakowski (1944-2008), footballeur et entraîneur français, décédé à Grand-Laviers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand-Laviers</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
